--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2018.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2018.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.024*"yes" + 0.024*"exchange" + 0.024*"foreign" + 0.014*"bank" + 0.014*"fund" + 0.011*"resident" + 0.011*"monetary" + 0.011*"currency" + 0.011*"may" + 0.010*"international"</t>
-  </si>
-  <si>
-    <t>0.021*"exchange" + 0.013*"foreign" + 0.011*"fund" + 0.010*"yes" + 0.009*"bank" + 0.009*"currency" + 0.008*"monetary" + 0.007*"resident" + 0.007*"transaction" + 0.006*"investment"</t>
-  </si>
-  <si>
-    <t>0.023*"foreign" + 0.021*"exchange" + 0.017*"yes" + 0.015*"nonresident" + 0.014*"fund" + 0.014*"currency" + 0.012*"investment" + 0.012*"may" + 0.011*"resident" + 0.011*"transaction"</t>
-  </si>
-  <si>
-    <t>0.031*"exchange" + 0.022*"yes" + 0.020*"foreign" + 0.014*"fund" + 0.011*"bank" + 0.011*"may" + 0.010*"currency" + 0.009*"resident" + 0.009*"international" + 0.009*"limit"</t>
-  </si>
-  <si>
-    <t>0.046*"exchange" + 0.021*"foreign" + 0.015*"yes" + 0.015*"bank" + 0.014*"currency" + 0.013*"monetary" + 0.012*"fund" + 0.011*"investment" + 0.010*"international" + 0.010*"account"</t>
+    <t>0.019*"import" + 0.017*"export" + 0.014*"imf" + 0.012*"trade" + 0.012*"market" + 0.011*"regulation" + 0.011*"law" + 0.010*"agreement" + 0.010*"article" + 0.010*"country"</t>
+  </si>
+  <si>
+    <t>0.066*"foreign" + 0.040*"exchange" + 0.032*"bank" + 0.029*"may" + 0.026*"currency" + 0.019*"account" + 0.018*"transaction" + 0.016*"must" + 0.011*"amount" + 0.009*"entity"</t>
+  </si>
+  <si>
+    <t>0.185*"yes" + 0.026*"information" + 0.025*"target" + 0.024*"requirement" + 0.024*"legal" + 0.024*"reference" + 0.020*"find" + 0.020*"online" + 0.020*"hyperlink" + 0.020*"database"</t>
+  </si>
+  <si>
+    <t>0.124*"exchange" + 0.118*"fund" + 0.087*"monetary" + 0.082*"international" + 0.057*"restriction" + 0.056*"arrangement" + 0.048*"report" + 0.037*"annual" + 0.035*"rate" + 0.019*"orgpagesreports"</t>
+  </si>
+  <si>
+    <t>0.043*"resident" + 0.041*"nonresident" + 0.037*"abroad" + 0.035*"investment" + 0.028*"limit" + 0.026*"security" + 0.024*"purchase" + 0.023*"issue" + 0.021*"approval" + 0.019*"asset"</t>
   </si>
 </sst>
 </file>
